--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k.weheliye/Desktop/tarabut/compliance/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A525DC28-5F8F-3A4E-8F3B-AE464B9EBB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A28CF2-0C6B-184A-A517-1AE9DA6727BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="326">
   <si>
     <t>Video Solution</t>
   </si>
@@ -996,6 +996,9 @@
   </si>
   <si>
     <t>Is Subsequence</t>
+  </si>
+  <si>
+    <t>Two Pointers: We can use two pointers to solve this in linear time. If we find that s[i] == t[j], that means we "found" the letter at position i for s, and we can move on to the next one by incrementing i.</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1306,8 +1309,6 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1527,7 +1528,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1594,14 +1595,17 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="24" t="s">
         <v>324</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>323</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1646,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1693,7 +1697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1710,7 +1714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
@@ -1727,7 +1731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -1744,7 +1748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
@@ -1761,7 +1765,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
@@ -1778,7 +1782,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -1795,7 +1799,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
@@ -1812,7 +1816,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
@@ -1829,7 +1833,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>46</v>
       </c>
@@ -1846,7 +1850,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>51</v>
       </c>
@@ -1863,7 +1867,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>55</v>
       </c>
@@ -1880,7 +1884,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>59</v>
       </c>
@@ -1897,7 +1901,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>63</v>
       </c>
@@ -1914,7 +1918,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>67</v>
       </c>
@@ -1931,7 +1935,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>72</v>
       </c>
@@ -1948,7 +1952,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>76</v>
       </c>
@@ -1965,7 +1969,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>80</v>
       </c>
@@ -1982,7 +1986,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>84</v>
       </c>
@@ -1999,7 +2003,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>88</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>92</v>
       </c>
@@ -2033,7 +2037,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>96</v>
       </c>
@@ -2050,7 +2054,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>100</v>
       </c>
@@ -2067,7 +2071,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>104</v>
       </c>
@@ -2084,7 +2088,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>108</v>
       </c>
@@ -2101,7 +2105,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>112</v>
       </c>
@@ -2118,7 +2122,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>117</v>
       </c>
@@ -2135,7 +2139,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>121</v>
       </c>
@@ -2152,7 +2156,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
@@ -2169,7 +2173,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>129</v>
       </c>
@@ -2186,7 +2190,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>133</v>
       </c>
@@ -2203,7 +2207,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>137</v>
       </c>
@@ -2220,7 +2224,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>141</v>
       </c>
@@ -2237,7 +2241,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>145</v>
       </c>
@@ -2254,7 +2258,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>150</v>
       </c>
@@ -2271,7 +2275,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>154</v>
       </c>
@@ -2288,7 +2292,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>158</v>
       </c>
@@ -2305,7 +2309,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>162</v>
       </c>
@@ -2322,7 +2326,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>166</v>
       </c>
@@ -2339,7 +2343,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>171</v>
       </c>
@@ -2356,7 +2360,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>175</v>
       </c>
@@ -2373,7 +2377,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>179</v>
       </c>
@@ -2390,7 +2394,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>183</v>
       </c>
@@ -2407,7 +2411,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>187</v>
       </c>
@@ -2424,7 +2428,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>191</v>
       </c>
@@ -2441,7 +2445,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>196</v>
       </c>

--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k.weheliye/Desktop/tarabut/compliance/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A28CF2-0C6B-184A-A517-1AE9DA6727BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5F2B24-1EBA-9744-86E1-4BB50FC9C43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1528,7 +1528,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k.weheliye/Desktop/tarabut/compliance/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5F2B24-1EBA-9744-86E1-4BB50FC9C43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16FE9E4-66AD-2F4B-A57D-7EE040FB03B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="329">
   <si>
     <t>Video Solution</t>
   </si>
@@ -999,6 +999,15 @@
   </si>
   <si>
     <t>Two Pointers: We can use two pointers to solve this in linear time. If we find that s[i] == t[j], that means we "found" the letter at position i for s, and we can move on to the next one by incrementing i.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-string</t>
+  </si>
+  <si>
+    <t>Reverse String</t>
+  </si>
+  <si>
+    <t>Two Pointers:  We take first and last elements and change their places. For that we used String tmp.</t>
   </si>
 </sst>
 </file>
@@ -1525,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13703DB-FEA8-9246-9D4D-5D4B2C6A9445}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1608,12 +1617,27 @@
         <v>325</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>328</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{0AFF85C1-CA37-F747-8CE3-0D0C9E7AC2A0}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{367ADF6A-5F17-A346-9DDF-ABD931F11AF9}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{6B9C3297-C807-CF43-AA7B-E97378371948}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{2A0E9DC2-E8F4-764A-989D-FBB9493AF002}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{C9094BB3-3FEE-B44C-A115-D650C9CB57A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k.weheliye/Desktop/tarabut/compliance/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F579CCE-5BF1-164E-9F40-BDF07324030B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94BFD10-EACF-E74A-96D7-223332B9EC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Category</t>
   </si>
@@ -89,13 +89,54 @@
   </si>
   <si>
     <t xml:space="preserve">Two Pointers: create third variable (index) that equals last index of array and decrement </t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>Two pointers</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>Sum SubString SubArray</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Slide Window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Two Pointers, Sub Array</t>
+    </r>
+  </si>
+  <si>
+    <t>Slide window: add element to slide-window and remove it based on the constraint , use loop to remove element from slide-window</t>
+  </si>
+  <si>
+    <t>Sum Longest SubArray</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -129,8 +170,20 @@
       <color rgb="FF000000"/>
       <name val="Arial (Body)"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial (Body)"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +193,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -193,6 +252,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -409,20 +471,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13703DB-FEA8-9246-9D4D-5D4B2C6A9445}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="53.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.1640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,11 +495,14 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -447,10 +513,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -461,10 +530,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -474,11 +546,14 @@
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -488,11 +563,14 @@
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -502,11 +580,14 @@
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -516,8 +597,39 @@
       <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k.weheliye/Desktop/tarabut/compliance/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94BFD10-EACF-E74A-96D7-223332B9EC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B54A1B6-30CC-C247-8232-520179AF8208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Category</t>
   </si>
@@ -103,7 +103,35 @@
     <t>Sum SubString SubArray</t>
   </si>
   <si>
-    <r>
+    <t>Slide window: add element to slide-window and remove it based on the constraint , use loop to remove element from slide-window</t>
+  </si>
+  <si>
+    <t>Sum Longest SubArray</t>
+  </si>
+  <si>
+    <t>SubArrayProductLessThanK</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-product-less-than-k/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Slide window: use this formula to calculate the size of the window </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>(answer +=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -112,7 +140,57 @@
         <color rgb="FFFF0000"/>
         <rFont val="Arial (Body)"/>
       </rPr>
-      <t>Slide Window</t>
+      <t>right - left + 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve">).  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve">+1 [6] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>is the newly added element to the window only one element,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (right -left +1 ) the size of the whole window [2,5,6]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>, , also you need to keep track old subArrays answr=+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Static Window, Fixed Window,</t>
     </r>
     <r>
       <rPr>
@@ -122,21 +200,204 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Slide Window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>,Two Pointers, Sub Array</t>
     </r>
   </si>
   <si>
-    <t>Slide window: add element to slide-window and remove it based on the constraint , use loop to remove element from slide-window</t>
-  </si>
-  <si>
-    <t>Sum Longest SubArray</t>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Slide Window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,Two Pointers, Sub Array, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Dynamic Window</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Slide Window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,Two Pointers, Sub Array, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Dynamic Window</t>
+    </r>
+  </si>
+  <si>
+    <t>StaticWindowLargestSumSubArray</t>
+  </si>
+  <si>
+    <t>Maximum Average Subarray I</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-average-subarray-i/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>(Slide Window + Fixed Window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>)  similar to above challenge , first get biggest sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (Math.max(answer, sum))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> and then return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve">(return result / k;) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>to move the window use this formula</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (sum += nums[i] - nums[i - k];)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>(Slide Window + Fixed Window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>)  we can build a window of length (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>K, Fixed Window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>) and then slide it along the array. Add and remove one element at a time to make sure the window stays size K.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> to move the window use this formula (sum += nums[i] - nums[i - k];)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -180,6 +441,16 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="5"/>
       <name val="Arial (Body)"/>
     </font>
   </fonts>
@@ -252,9 +523,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -471,17 +742,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13703DB-FEA8-9246-9D4D-5D4B2C6A9445}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="76.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -495,7 +766,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -608,28 +879,76 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>29</v>
+      <c r="B8" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>28</v>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -640,6 +959,8 @@
     <hyperlink ref="C5" r:id="rId4" xr:uid="{2A0E9DC2-E8F4-764A-989D-FBB9493AF002}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{C9094BB3-3FEE-B44C-A115-D650C9CB57A5}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{B9BEF090-2AFE-9441-AD50-35C1A5966885}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{F7F388A7-ACD1-E140-B119-D7BCFD50F5FE}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{77A7E089-AC14-AB4A-B671-C0D310CB6CF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k.weheliye/Desktop/tarabut/compliance/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamal/Documents/yallafix/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B54A1B6-30CC-C247-8232-520179AF8208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39F20B5-A868-384C-8977-7ED5907E4D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Category</t>
   </si>
@@ -391,13 +391,48 @@
       </rPr>
       <t xml:space="preserve"> to move the window use this formula (sum += nums[i] - nums[i - k];)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrays </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-consecutive-ones-iii/</t>
+  </si>
+  <si>
+    <r>
+      <t>Slide Window,Two Pointers,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Flip </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(Two Pointers , Flip) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve">We can use slide-window to solve this problem this is the algorithm ( a loop that increase right pointer -&gt; if statement that increase the count of Zero, while loop that decreases the count Zero) </t>
+    </r>
+  </si>
+  <si>
+    <t>Max Consecutive Ones III</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -452,6 +487,13 @@
       <sz val="14"/>
       <color theme="5"/>
       <name val="Arial (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -515,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -526,6 +568,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -742,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13703DB-FEA8-9246-9D4D-5D4B2C6A9445}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -951,6 +994,23 @@
         <v>38</v>
       </c>
     </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{0AFF85C1-CA37-F747-8CE3-0D0C9E7AC2A0}"/>
@@ -961,6 +1021,7 @@
     <hyperlink ref="C7" r:id="rId6" xr:uid="{B9BEF090-2AFE-9441-AD50-35C1A5966885}"/>
     <hyperlink ref="C10" r:id="rId7" xr:uid="{F7F388A7-ACD1-E140-B119-D7BCFD50F5FE}"/>
     <hyperlink ref="C12" r:id="rId8" xr:uid="{77A7E089-AC14-AB4A-B671-C0D310CB6CF3}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{BCDCDE6F-1466-074A-BB9F-F0CB675CA923}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamal/Documents/yallafix/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39F20B5-A868-384C-8977-7ED5907E4D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D965CB2-C936-2D48-BC07-C12B88779DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Category</t>
   </si>
@@ -426,13 +426,51 @@
   </si>
   <si>
     <t>Max Consecutive Ones III</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of Ways to Split Array (With Array)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-ways-to-split-array/</t>
+  </si>
+  <si>
+    <t>Prefix Sum</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prefix Sum: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>use an array to calculate the prefix of all sum elements</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of Ways to Split Array (Without Array)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prefix Sum: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>use a variable instead of array  to calculate the prefix of all sum elements</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -465,13 +503,6 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial (Body)"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -565,10 +596,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -785,18 +816,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13703DB-FEA8-9246-9D4D-5D4B2C6A9445}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -816,7 +847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -833,7 +864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -850,7 +881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -867,7 +898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -884,7 +915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -901,7 +932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -918,11 +949,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -932,11 +963,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -946,11 +977,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -963,25 +994,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -990,15 +1021,15 @@
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1007,8 +1038,42 @@
       <c r="D13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1022,6 +1087,8 @@
     <hyperlink ref="C10" r:id="rId7" xr:uid="{F7F388A7-ACD1-E140-B119-D7BCFD50F5FE}"/>
     <hyperlink ref="C12" r:id="rId8" xr:uid="{77A7E089-AC14-AB4A-B671-C0D310CB6CF3}"/>
     <hyperlink ref="C13" r:id="rId9" xr:uid="{BCDCDE6F-1466-074A-BB9F-F0CB675CA923}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{0C111F3E-212C-5649-8472-D8D2118553C9}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{FA8897B0-989F-4843-8C79-077B8E564DE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamal/Documents/yallafix/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D965CB2-C936-2D48-BC07-C12B88779DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66CF4B5-FDA0-3845-8DCE-CAFDC3C1B3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Category</t>
   </si>
@@ -428,9 +428,6 @@
     <t>Max Consecutive Ones III</t>
   </si>
   <si>
-    <t xml:space="preserve"> Number of Ways to Split Array (With Array)</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/number-of-ways-to-split-array/</t>
   </si>
   <si>
@@ -450,9 +447,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Number of Ways to Split Array (Without Array)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Prefix Sum: </t>
     </r>
@@ -464,6 +458,50 @@
       </rPr>
       <t>use a variable instead of array  to calculate the prefix of all sum elements</t>
     </r>
+  </si>
+  <si>
+    <t>Running Sum of 1d Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/running-sum-of-1d-array/</t>
+  </si>
+  <si>
+    <t>Using Separate Array, Using Input Array for Output</t>
+  </si>
+  <si>
+    <r>
+      <t>Their's two approach to solve this challenge , either create a seprate array to store sum of elements (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>result[i] = result[i - 1] + nums[i]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>;) , or use same input array for return output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (nums[i] += nums[i - 1];)</t>
+    </r>
+  </si>
+  <si>
+    <t>Number of Ways to Split Array (Without Array)</t>
+  </si>
+  <si>
+    <t>Number of Ways to Split Array (With Array)</t>
   </si>
 </sst>
 </file>
@@ -816,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13703DB-FEA8-9246-9D4D-5D4B2C6A9445}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -937,30 +975,33 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>28</v>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -968,10 +1009,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>27</v>
@@ -982,16 +1023,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -999,13 +1037,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1013,33 +1054,30 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1047,33 +1085,50 @@
         <v>40</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>50</v>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1083,12 +1138,13 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{6B9C3297-C807-CF43-AA7B-E97378371948}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{2A0E9DC2-E8F4-764A-989D-FBB9493AF002}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{C9094BB3-3FEE-B44C-A115-D650C9CB57A5}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{B9BEF090-2AFE-9441-AD50-35C1A5966885}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{F7F388A7-ACD1-E140-B119-D7BCFD50F5FE}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{77A7E089-AC14-AB4A-B671-C0D310CB6CF3}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{BCDCDE6F-1466-074A-BB9F-F0CB675CA923}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{0C111F3E-212C-5649-8472-D8D2118553C9}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{FA8897B0-989F-4843-8C79-077B8E564DE2}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{B9BEF090-2AFE-9441-AD50-35C1A5966885}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{F7F388A7-ACD1-E140-B119-D7BCFD50F5FE}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{77A7E089-AC14-AB4A-B671-C0D310CB6CF3}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{BCDCDE6F-1466-074A-BB9F-F0CB675CA923}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{0C111F3E-212C-5649-8472-D8D2118553C9}"/>
+    <hyperlink ref="C16" r:id="rId11" xr:uid="{FA8897B0-989F-4843-8C79-077B8E564DE2}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{1ED9A352-B7B9-AB40-B432-CF109BDAF648}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamal/Documents/yallafix/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66CF4B5-FDA0-3845-8DCE-CAFDC3C1B3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD8784B-7FC5-8741-9294-A51F715CCC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>Link</t>
@@ -502,6 +499,58 @@
   </si>
   <si>
     <t>Number of Ways to Split Array (With Array)</t>
+  </si>
+  <si>
+    <t>Class name</t>
+  </si>
+  <si>
+    <t>Challenge Name</t>
+  </si>
+  <si>
+    <t>Minimum Value to Get Positive Step by Step Sum</t>
+  </si>
+  <si>
+    <t>MinimumValueToGetPositiveStepByStepSum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-value-to-get-positive-step-by-step-sum/</t>
+  </si>
+  <si>
+    <r>
+      <t>Use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> PrefixSum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Technique and get minimum prefix value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Math.min(minPrefixSum, sum), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve">then </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -626,7 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -638,6 +687,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -854,281 +906,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13703DB-FEA8-9246-9D4D-5D4B2C6A9445}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="48.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.1640625" customWidth="1"/>
+    <col min="5" max="5" width="76.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1138,13 +1229,14 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{6B9C3297-C807-CF43-AA7B-E97378371948}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{2A0E9DC2-E8F4-764A-989D-FBB9493AF002}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{C9094BB3-3FEE-B44C-A115-D650C9CB57A5}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{B9BEF090-2AFE-9441-AD50-35C1A5966885}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{F7F388A7-ACD1-E140-B119-D7BCFD50F5FE}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{77A7E089-AC14-AB4A-B671-C0D310CB6CF3}"/>
-    <hyperlink ref="C14" r:id="rId9" xr:uid="{BCDCDE6F-1466-074A-BB9F-F0CB675CA923}"/>
-    <hyperlink ref="C15" r:id="rId10" xr:uid="{0C111F3E-212C-5649-8472-D8D2118553C9}"/>
-    <hyperlink ref="C16" r:id="rId11" xr:uid="{FA8897B0-989F-4843-8C79-077B8E564DE2}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{B9BEF090-2AFE-9441-AD50-35C1A5966885}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{F7F388A7-ACD1-E140-B119-D7BCFD50F5FE}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{77A7E089-AC14-AB4A-B671-C0D310CB6CF3}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{BCDCDE6F-1466-074A-BB9F-F0CB675CA923}"/>
+    <hyperlink ref="C16" r:id="rId10" xr:uid="{0C111F3E-212C-5649-8472-D8D2118553C9}"/>
+    <hyperlink ref="C17" r:id="rId11" xr:uid="{FA8897B0-989F-4843-8C79-077B8E564DE2}"/>
     <hyperlink ref="C7" r:id="rId12" xr:uid="{1ED9A352-B7B9-AB40-B432-CF109BDAF648}"/>
+    <hyperlink ref="C8" r:id="rId13" xr:uid="{AAA3065A-A5DD-DA4B-B0C7-BB17201B4434}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamal/Documents/yallafix/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD8784B-7FC5-8741-9294-A51F715CCC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11757F54-AE9A-344A-B85B-9BAF82CC7012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,9 +510,6 @@
     <t>Minimum Value to Get Positive Step by Step Sum</t>
   </si>
   <si>
-    <t>MinimumValueToGetPositiveStepByStepSum</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/minimum-value-to-get-positive-step-by-step-sum/</t>
   </si>
   <si>
@@ -551,6 +548,9 @@
       </rPr>
       <t xml:space="preserve">then </t>
     </r>
+  </si>
+  <si>
+    <t>MinimumValueToGetPositiveStepByStepSum_Prefix</t>
   </si>
 </sst>
 </file>
@@ -908,15 +908,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13703DB-FEA8-9246-9D4D-5D4B2C6A9445}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="54.6640625" customWidth="1"/>
     <col min="3" max="3" width="63.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.1640625" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" customWidth="1"/>
     <col min="5" max="5" width="76.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="255.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1057,16 +1057,16 @@
         <v>56</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">

--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamal/Documents/yallafix/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11757F54-AE9A-344A-B85B-9BAF82CC7012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74D3CAC-D814-AE49-936C-31B7A25013C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>Category</t>
   </si>
@@ -551,6 +551,33 @@
   </si>
   <si>
     <t>MinimumValueToGetPositiveStepByStepSum_Prefix</t>
+  </si>
+  <si>
+    <t>MinimumValueToGetPositiveStepByStepSum_BruteForce</t>
+  </si>
+  <si>
+    <t>Use Brute Force</t>
+  </si>
+  <si>
+    <r>
+      <t>Brute Force : startValue=1 and calculate the total</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> if (total &lt; 1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>break from the while loop</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -906,17 +933,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13703DB-FEA8-9246-9D4D-5D4B2C6A9445}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="54.6640625" customWidth="1"/>
     <col min="3" max="3" width="63.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.6640625" customWidth="1"/>
+    <col min="4" max="4" width="65.5" customWidth="1"/>
     <col min="5" max="5" width="76.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="255.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1060,46 +1087,51 @@
         <v>57</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>27</v>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1107,11 +1139,11 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>26</v>
@@ -1122,17 +1154,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1140,14 +1169,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1155,35 +1187,32 @@
         <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1191,25 +1220,25 @@
         <v>39</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="10" t="s">
-        <v>45</v>
+      <c r="E16" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>44</v>
@@ -1219,6 +1248,24 @@
         <v>45</v>
       </c>
       <c r="F17" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1229,14 +1276,14 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{6B9C3297-C807-CF43-AA7B-E97378371948}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{2A0E9DC2-E8F4-764A-989D-FBB9493AF002}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{C9094BB3-3FEE-B44C-A115-D650C9CB57A5}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{B9BEF090-2AFE-9441-AD50-35C1A5966885}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{F7F388A7-ACD1-E140-B119-D7BCFD50F5FE}"/>
-    <hyperlink ref="C14" r:id="rId8" xr:uid="{77A7E089-AC14-AB4A-B671-C0D310CB6CF3}"/>
-    <hyperlink ref="C15" r:id="rId9" xr:uid="{BCDCDE6F-1466-074A-BB9F-F0CB675CA923}"/>
-    <hyperlink ref="C16" r:id="rId10" xr:uid="{0C111F3E-212C-5649-8472-D8D2118553C9}"/>
-    <hyperlink ref="C17" r:id="rId11" xr:uid="{FA8897B0-989F-4843-8C79-077B8E564DE2}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{B9BEF090-2AFE-9441-AD50-35C1A5966885}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{F7F388A7-ACD1-E140-B119-D7BCFD50F5FE}"/>
+    <hyperlink ref="C15" r:id="rId8" xr:uid="{77A7E089-AC14-AB4A-B671-C0D310CB6CF3}"/>
+    <hyperlink ref="C16" r:id="rId9" xr:uid="{BCDCDE6F-1466-074A-BB9F-F0CB675CA923}"/>
+    <hyperlink ref="C17" r:id="rId10" xr:uid="{0C111F3E-212C-5649-8472-D8D2118553C9}"/>
+    <hyperlink ref="C18" r:id="rId11" xr:uid="{FA8897B0-989F-4843-8C79-077B8E564DE2}"/>
     <hyperlink ref="C7" r:id="rId12" xr:uid="{1ED9A352-B7B9-AB40-B432-CF109BDAF648}"/>
-    <hyperlink ref="C8" r:id="rId13" xr:uid="{AAA3065A-A5DD-DA4B-B0C7-BB17201B4434}"/>
+    <hyperlink ref="C9" r:id="rId13" xr:uid="{AAA3065A-A5DD-DA4B-B0C7-BB17201B4434}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamal/Documents/yallafix/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74D3CAC-D814-AE49-936C-31B7A25013C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230E3834-7E88-BA4D-8CAC-FE2431922ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>Category</t>
   </si>
@@ -578,6 +578,18 @@
       </rPr>
       <t>break from the while loop</t>
     </r>
+  </si>
+  <si>
+    <t>K Radius Subarray Averages (Prefix)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/k-radius-subarray-averages/</t>
+  </si>
+  <si>
+    <t>KRadiusSubarrayAverages_PrefixSolution</t>
+  </si>
+  <si>
+    <t>Prefix Sum:</t>
   </si>
 </sst>
 </file>
@@ -702,7 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -715,6 +727,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -933,17 +948,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13703DB-FEA8-9246-9D4D-5D4B2C6A9445}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="54.6640625" customWidth="1"/>
     <col min="3" max="3" width="63.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.5" customWidth="1"/>
+    <col min="4" max="4" width="65.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="76.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="255.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -978,7 +993,6 @@
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
@@ -996,7 +1010,6 @@
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1014,7 +1027,6 @@
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1032,7 +1044,6 @@
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1050,7 +1061,6 @@
       <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1068,7 +1078,6 @@
       <c r="C7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
         <v>50</v>
       </c>
@@ -1126,7 +1135,6 @@
       <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1141,7 +1149,6 @@
       <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
@@ -1156,7 +1163,6 @@
       <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
         <v>33</v>
       </c>
@@ -1174,7 +1180,6 @@
       <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1189,7 +1194,6 @@
       <c r="B14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1207,7 +1211,6 @@
       <c r="C15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
         <v>31</v>
       </c>
@@ -1225,7 +1228,6 @@
       <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
         <v>41</v>
       </c>
@@ -1243,7 +1245,6 @@
       <c r="C17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="3"/>
       <c r="E17" s="10" t="s">
         <v>45</v>
       </c>
@@ -1261,12 +1262,31 @@
       <c r="C18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="3"/>
       <c r="E18" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1284,6 +1304,7 @@
     <hyperlink ref="C18" r:id="rId11" xr:uid="{FA8897B0-989F-4843-8C79-077B8E564DE2}"/>
     <hyperlink ref="C7" r:id="rId12" xr:uid="{1ED9A352-B7B9-AB40-B432-CF109BDAF648}"/>
     <hyperlink ref="C9" r:id="rId13" xr:uid="{AAA3065A-A5DD-DA4B-B0C7-BB17201B4434}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{6A8EE19C-D739-2B4C-A65D-8F9DF01F42D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamal/Documents/yallafix/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230E3834-7E88-BA4D-8CAC-FE2431922ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A7D262-6415-A944-A99D-C508772BB351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,7 +589,17 @@
     <t>KRadiusSubarrayAverages_PrefixSolution</t>
   </si>
   <si>
-    <t>Prefix Sum:</t>
+    <r>
+      <t>Prefix Sum:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Check first if nums has K on left and right , create average array and initialize with -1</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -950,7 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13703DB-FEA8-9246-9D4D-5D4B2C6A9445}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamal/Documents/yallafix/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A7D262-6415-A944-A99D-C508772BB351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B14F95-64AF-4D49-A4E8-D8BBB9AA2B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>Category</t>
   </si>
@@ -599,6 +599,66 @@
         <rFont val="Arial (Body)"/>
       </rPr>
       <t xml:space="preserve"> Check first if nums has K on left and right , create average array and initialize with -1</t>
+    </r>
+  </si>
+  <si>
+    <t>Reverse Words in a String III</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-words-in-a-string-iii</t>
+  </si>
+  <si>
+    <t>Traverse and Reverse each character one by one</t>
+  </si>
+  <si>
+    <t>ReverseWordsInAStringIII_TraverseReverse</t>
+  </si>
+  <si>
+    <t>RunningSumOf1dArray</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Their's only one edge case in here, the last word does not have a space after its last character, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>you need two loop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>loop one will iterate whole the string , and loop two will do reversing string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>), of course you need and if statement to check whether their's space or is lastIndex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (if ((strIndex == s.length() - 1) || s.charAt(strIndex) == ' ')) </t>
     </r>
   </si>
 </sst>
@@ -958,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13703DB-FEA8-9246-9D4D-5D4B2C6A9445}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1083,36 +1143,39 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.2">
@@ -1126,44 +1189,50 @@
         <v>57</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>27</v>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1171,10 +1240,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>26</v>
@@ -1185,16 +1254,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1202,13 +1268,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1216,33 +1285,30 @@
         <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1250,24 +1316,24 @@
         <v>39</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>44</v>
@@ -1276,26 +1342,43 @@
         <v>45</v>
       </c>
       <c r="F18" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="12" t="s">
+    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1306,15 +1389,16 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{6B9C3297-C807-CF43-AA7B-E97378371948}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{2A0E9DC2-E8F4-764A-989D-FBB9493AF002}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{C9094BB3-3FEE-B44C-A115-D650C9CB57A5}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{B9BEF090-2AFE-9441-AD50-35C1A5966885}"/>
-    <hyperlink ref="C13" r:id="rId7" xr:uid="{F7F388A7-ACD1-E140-B119-D7BCFD50F5FE}"/>
-    <hyperlink ref="C15" r:id="rId8" xr:uid="{77A7E089-AC14-AB4A-B671-C0D310CB6CF3}"/>
-    <hyperlink ref="C16" r:id="rId9" xr:uid="{BCDCDE6F-1466-074A-BB9F-F0CB675CA923}"/>
-    <hyperlink ref="C17" r:id="rId10" xr:uid="{0C111F3E-212C-5649-8472-D8D2118553C9}"/>
-    <hyperlink ref="C18" r:id="rId11" xr:uid="{FA8897B0-989F-4843-8C79-077B8E564DE2}"/>
-    <hyperlink ref="C7" r:id="rId12" xr:uid="{1ED9A352-B7B9-AB40-B432-CF109BDAF648}"/>
-    <hyperlink ref="C9" r:id="rId13" xr:uid="{AAA3065A-A5DD-DA4B-B0C7-BB17201B4434}"/>
-    <hyperlink ref="C19" r:id="rId14" xr:uid="{6A8EE19C-D739-2B4C-A65D-8F9DF01F42D6}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{B9BEF090-2AFE-9441-AD50-35C1A5966885}"/>
+    <hyperlink ref="C14" r:id="rId7" xr:uid="{F7F388A7-ACD1-E140-B119-D7BCFD50F5FE}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{77A7E089-AC14-AB4A-B671-C0D310CB6CF3}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{BCDCDE6F-1466-074A-BB9F-F0CB675CA923}"/>
+    <hyperlink ref="C18" r:id="rId10" xr:uid="{0C111F3E-212C-5649-8472-D8D2118553C9}"/>
+    <hyperlink ref="C19" r:id="rId11" xr:uid="{FA8897B0-989F-4843-8C79-077B8E564DE2}"/>
+    <hyperlink ref="C8" r:id="rId12" xr:uid="{1ED9A352-B7B9-AB40-B432-CF109BDAF648}"/>
+    <hyperlink ref="C10" r:id="rId13" xr:uid="{AAA3065A-A5DD-DA4B-B0C7-BB17201B4434}"/>
+    <hyperlink ref="C20" r:id="rId14" xr:uid="{6A8EE19C-D739-2B4C-A65D-8F9DF01F42D6}"/>
+    <hyperlink ref="C7" r:id="rId15" xr:uid="{B031A56D-0134-5743-B129-001728B0104E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamal/Documents/yallafix/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B14F95-64AF-4D49-A4E8-D8BBB9AA2B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31477D8-6B9E-F04C-89C4-1F05BD2105C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>Category</t>
   </si>
@@ -659,6 +659,22 @@
         <rFont val="Arial (Body)"/>
       </rPr>
       <t xml:space="preserve"> (if ((strIndex == s.length() - 1) || s.charAt(strIndex) == ' ')) </t>
+    </r>
+  </si>
+  <si>
+    <t>ReverseWordsInAStringIII_TwoPointers</t>
+  </si>
+  <si>
+    <r>
+      <t>Two poiners : Copy all strings to char[] and swap lastIndex with startIndex and have two pointers the decreases and increment in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> while loop  </t>
     </r>
   </si>
 </sst>
@@ -1018,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13703DB-FEA8-9246-9D4D-5D4B2C6A9445}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1149,13 +1165,13 @@
         <v>68</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1163,39 +1179,39 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.2">
@@ -1209,44 +1225,50 @@
         <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>27</v>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1254,10 +1276,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>26</v>
@@ -1268,16 +1290,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1285,13 +1304,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1299,33 +1321,30 @@
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1333,24 +1352,24 @@
         <v>39</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>44</v>
@@ -1359,26 +1378,43 @@
         <v>45</v>
       </c>
       <c r="F19" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="12" t="s">
+    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1389,16 +1425,17 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{6B9C3297-C807-CF43-AA7B-E97378371948}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{2A0E9DC2-E8F4-764A-989D-FBB9493AF002}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{C9094BB3-3FEE-B44C-A115-D650C9CB57A5}"/>
-    <hyperlink ref="C11" r:id="rId6" xr:uid="{B9BEF090-2AFE-9441-AD50-35C1A5966885}"/>
-    <hyperlink ref="C14" r:id="rId7" xr:uid="{F7F388A7-ACD1-E140-B119-D7BCFD50F5FE}"/>
-    <hyperlink ref="C16" r:id="rId8" xr:uid="{77A7E089-AC14-AB4A-B671-C0D310CB6CF3}"/>
-    <hyperlink ref="C17" r:id="rId9" xr:uid="{BCDCDE6F-1466-074A-BB9F-F0CB675CA923}"/>
-    <hyperlink ref="C18" r:id="rId10" xr:uid="{0C111F3E-212C-5649-8472-D8D2118553C9}"/>
-    <hyperlink ref="C19" r:id="rId11" xr:uid="{FA8897B0-989F-4843-8C79-077B8E564DE2}"/>
-    <hyperlink ref="C8" r:id="rId12" xr:uid="{1ED9A352-B7B9-AB40-B432-CF109BDAF648}"/>
-    <hyperlink ref="C10" r:id="rId13" xr:uid="{AAA3065A-A5DD-DA4B-B0C7-BB17201B4434}"/>
-    <hyperlink ref="C20" r:id="rId14" xr:uid="{6A8EE19C-D739-2B4C-A65D-8F9DF01F42D6}"/>
-    <hyperlink ref="C7" r:id="rId15" xr:uid="{B031A56D-0134-5743-B129-001728B0104E}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{B9BEF090-2AFE-9441-AD50-35C1A5966885}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{F7F388A7-ACD1-E140-B119-D7BCFD50F5FE}"/>
+    <hyperlink ref="C17" r:id="rId8" xr:uid="{77A7E089-AC14-AB4A-B671-C0D310CB6CF3}"/>
+    <hyperlink ref="C18" r:id="rId9" xr:uid="{BCDCDE6F-1466-074A-BB9F-F0CB675CA923}"/>
+    <hyperlink ref="C19" r:id="rId10" xr:uid="{0C111F3E-212C-5649-8472-D8D2118553C9}"/>
+    <hyperlink ref="C20" r:id="rId11" xr:uid="{FA8897B0-989F-4843-8C79-077B8E564DE2}"/>
+    <hyperlink ref="C9" r:id="rId12" xr:uid="{1ED9A352-B7B9-AB40-B432-CF109BDAF648}"/>
+    <hyperlink ref="C11" r:id="rId13" xr:uid="{AAA3065A-A5DD-DA4B-B0C7-BB17201B4434}"/>
+    <hyperlink ref="C21" r:id="rId14" xr:uid="{6A8EE19C-D739-2B4C-A65D-8F9DF01F42D6}"/>
+    <hyperlink ref="C8" r:id="rId15" xr:uid="{B031A56D-0134-5743-B129-001728B0104E}"/>
+    <hyperlink ref="C7" r:id="rId16" xr:uid="{D8C68F35-E592-694F-B074-1E28C3DD241D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamal/Documents/yallafix/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31477D8-6B9E-F04C-89C4-1F05BD2105C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025CCACA-381F-A34B-83A0-28859216DA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
   <si>
     <t>Category</t>
   </si>
@@ -675,6 +675,71 @@
         <rFont val="Arial (Body)"/>
       </rPr>
       <t xml:space="preserve"> while loop  </t>
+    </r>
+  </si>
+  <si>
+    <t>Reverse Pointer</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-only-letters</t>
+  </si>
+  <si>
+    <t>ReverseOnlyLetters_ReversePointer</t>
+  </si>
+  <si>
+    <t>ReverseOnlyLetters_Stack</t>
+  </si>
+  <si>
+    <t>Stack (Pop, Push)</t>
+  </si>
+  <si>
+    <r>
+      <t>Use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Stack </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Technique (Collect the letters of 'S' separately into a stack, so that popping the stack reverses the letters)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Reverse Pointer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Technique: You need two loop, the first loop will check if the left character can be reversed, if so then we need another loop that will check if right character can be reversed  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (int j = S.length() - 1;   while (!Character.isLetter(S.charAt(j))) j--)  </t>
     </r>
   </si>
 </sst>
@@ -1034,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13703DB-FEA8-9246-9D4D-5D4B2C6A9445}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1254,49 +1319,61 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>19</v>
+      <c r="B12" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
+        <v>76</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>32</v>
+      <c r="B13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>25</v>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1304,16 +1381,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1321,13 +1395,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1335,86 +1409,117 @@
         <v>3</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="12" t="s">
+    <row r="23" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E23" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1425,17 +1530,19 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{6B9C3297-C807-CF43-AA7B-E97378371948}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{2A0E9DC2-E8F4-764A-989D-FBB9493AF002}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{C9094BB3-3FEE-B44C-A115-D650C9CB57A5}"/>
-    <hyperlink ref="C12" r:id="rId6" xr:uid="{B9BEF090-2AFE-9441-AD50-35C1A5966885}"/>
-    <hyperlink ref="C15" r:id="rId7" xr:uid="{F7F388A7-ACD1-E140-B119-D7BCFD50F5FE}"/>
-    <hyperlink ref="C17" r:id="rId8" xr:uid="{77A7E089-AC14-AB4A-B671-C0D310CB6CF3}"/>
-    <hyperlink ref="C18" r:id="rId9" xr:uid="{BCDCDE6F-1466-074A-BB9F-F0CB675CA923}"/>
-    <hyperlink ref="C19" r:id="rId10" xr:uid="{0C111F3E-212C-5649-8472-D8D2118553C9}"/>
-    <hyperlink ref="C20" r:id="rId11" xr:uid="{FA8897B0-989F-4843-8C79-077B8E564DE2}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{B9BEF090-2AFE-9441-AD50-35C1A5966885}"/>
+    <hyperlink ref="C17" r:id="rId7" xr:uid="{F7F388A7-ACD1-E140-B119-D7BCFD50F5FE}"/>
+    <hyperlink ref="C19" r:id="rId8" xr:uid="{77A7E089-AC14-AB4A-B671-C0D310CB6CF3}"/>
+    <hyperlink ref="C20" r:id="rId9" xr:uid="{BCDCDE6F-1466-074A-BB9F-F0CB675CA923}"/>
+    <hyperlink ref="C21" r:id="rId10" xr:uid="{0C111F3E-212C-5649-8472-D8D2118553C9}"/>
+    <hyperlink ref="C22" r:id="rId11" xr:uid="{FA8897B0-989F-4843-8C79-077B8E564DE2}"/>
     <hyperlink ref="C9" r:id="rId12" xr:uid="{1ED9A352-B7B9-AB40-B432-CF109BDAF648}"/>
     <hyperlink ref="C11" r:id="rId13" xr:uid="{AAA3065A-A5DD-DA4B-B0C7-BB17201B4434}"/>
-    <hyperlink ref="C21" r:id="rId14" xr:uid="{6A8EE19C-D739-2B4C-A65D-8F9DF01F42D6}"/>
+    <hyperlink ref="C23" r:id="rId14" xr:uid="{6A8EE19C-D739-2B4C-A65D-8F9DF01F42D6}"/>
     <hyperlink ref="C8" r:id="rId15" xr:uid="{B031A56D-0134-5743-B129-001728B0104E}"/>
     <hyperlink ref="C7" r:id="rId16" xr:uid="{D8C68F35-E592-694F-B074-1E28C3DD241D}"/>
+    <hyperlink ref="C13" r:id="rId17" xr:uid="{A1684345-5477-0F4D-95A7-DF38E28D89B8}"/>
+    <hyperlink ref="C12" r:id="rId18" xr:uid="{F400BD3C-697A-EC4A-9115-6AAAF80D3EC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamal/Documents/yallafix/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025CCACA-381F-A34B-83A0-28859216DA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FBD3AE-0D3E-0A4A-BB1E-9EC9EF8BE15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>Category</t>
   </si>
@@ -740,6 +740,63 @@
         <rFont val="Arial (Body)"/>
       </rPr>
       <t xml:space="preserve"> (int j = S.length() - 1;   while (!Character.isLetter(S.charAt(j))) j--)  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashing </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/first-letter-to-appear-twice</t>
+  </si>
+  <si>
+    <t>First Letter to Appear Twice</t>
+  </si>
+  <si>
+    <t>FirstLetterToAppearTwice</t>
+  </si>
+  <si>
+    <t>Data Structure (Set)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Set: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Use set to store seen characters</t>
+    </r>
+  </si>
+  <si>
+    <t>TwoSum_HashTable</t>
+  </si>
+  <si>
+    <t>Data Structure (HashMap)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve">HashMap: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Use HashMap to store values and use this formula to check whether sum of target contains in Map  (target - nums[i];)</t>
     </r>
   </si>
 </sst>
@@ -747,7 +804,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -802,6 +859,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial (Body)"/>
     </font>
   </fonts>
   <fills count="4">
@@ -865,7 +935,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -882,6 +952,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1099,15 +1175,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13703DB-FEA8-9246-9D4D-5D4B2C6A9445}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="54.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="63.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="76.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -1523,7 +1600,58 @@
         <v>66</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A26:D26"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{0AFF85C1-CA37-F747-8CE3-0D0C9E7AC2A0}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{367ADF6A-5F17-A346-9DDF-ABD931F11AF9}"/>
@@ -1543,6 +1671,8 @@
     <hyperlink ref="C7" r:id="rId16" xr:uid="{D8C68F35-E592-694F-B074-1E28C3DD241D}"/>
     <hyperlink ref="C13" r:id="rId17" xr:uid="{A1684345-5477-0F4D-95A7-DF38E28D89B8}"/>
     <hyperlink ref="C12" r:id="rId18" xr:uid="{F400BD3C-697A-EC4A-9115-6AAAF80D3EC7}"/>
+    <hyperlink ref="C28" r:id="rId19" xr:uid="{46B153E7-4D1E-AD47-B84C-1AC037305EC3}"/>
+    <hyperlink ref="C27" r:id="rId20" xr:uid="{C3A7855B-CF30-764F-8E3A-2F7A2EEF233E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamal/Documents/yallafix/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FBD3AE-0D3E-0A4A-BB1E-9EC9EF8BE15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE6A05E-8DC0-2F4A-A8E0-8C597E1EAD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
   <si>
     <t>Category</t>
   </si>
@@ -797,6 +797,64 @@
         <rFont val="Arial (Body)"/>
       </rPr>
       <t>Use HashMap to store values and use this formula to check whether sum of target contains in Map  (target - nums[i];)</t>
+    </r>
+  </si>
+  <si>
+    <t>Find All Numbers Not In Array</t>
+  </si>
+  <si>
+    <t>Given an integer array nums, find all the numbers x that satisfy the following:
+ * x + 1 is not in nums, and x - 1 is not in nums.</t>
+  </si>
+  <si>
+    <t>FindNumbersNotInNums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Structure (Set) </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Set: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>We can solve this in a straightforward manner - just iterate through nums and check if x + 1 or x - 1 is in nums. By converting nums into a set beforehand</t>
+    </r>
+  </si>
+  <si>
+    <t>Check if the Sentence Is Pangram</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/check-if-the-sentence-is-pangram/</t>
+  </si>
+  <si>
+    <t>Pangram</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Set: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>store string into Set&lt;Character&gt; and  return seen.size() == 26;</t>
     </r>
   </si>
 </sst>
@@ -804,7 +862,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -873,6 +931,13 @@
       <color theme="1"/>
       <name val="Arial (Body)"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -935,7 +1000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -953,11 +1018,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1175,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13703DB-FEA8-9246-9D4D-5D4B2C6A9445}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="F15" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1612,7 +1682,7 @@
       <c r="A27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1632,7 +1702,7 @@
       <c r="A28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1647,6 +1717,49 @@
       <c r="F28" s="6" t="s">
         <v>87</v>
       </c>
+    </row>
+    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1673,6 +1786,7 @@
     <hyperlink ref="C12" r:id="rId18" xr:uid="{F400BD3C-697A-EC4A-9115-6AAAF80D3EC7}"/>
     <hyperlink ref="C28" r:id="rId19" xr:uid="{46B153E7-4D1E-AD47-B84C-1AC037305EC3}"/>
     <hyperlink ref="C27" r:id="rId20" xr:uid="{C3A7855B-CF30-764F-8E3A-2F7A2EEF233E}"/>
+    <hyperlink ref="C30" r:id="rId21" xr:uid="{31D8B6D9-4654-D442-97D5-26DF0E065BE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamal/Documents/yallafix/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE6A05E-8DC0-2F4A-A8E0-8C597E1EAD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322118AB-A824-4942-8516-FBB2CE2400DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
   <si>
     <t>Category</t>
   </si>
@@ -856,6 +856,72 @@
       </rPr>
       <t>store string into Set&lt;Character&gt; and  return seen.size() == 26;</t>
     </r>
+  </si>
+  <si>
+    <t>Example 1: You are given a string s and an integer k. Find the length of the longest substring that contains at most k distinct characters.
+For example, given s = "eceba" and k = 2, return 3. The longest substring with at most 2 distinct characters is "ece".</t>
+  </si>
+  <si>
+    <t>LongestSubstringWithAtMostKDistinctCharacters</t>
+  </si>
+  <si>
+    <t>Data Structure (HashMap), Slide Window</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>HashMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Use HashMap to store individual character and it's count  and use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>while(counts.size() &gt; k)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> loop to move lef++t windows  and at the same time remove character.chartAt(left) from left </t>
+    </r>
+  </si>
+  <si>
+    <t>Longest Substring With at Most K Distinct Characters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/counting-elements/</t>
+  </si>
+  <si>
+    <t>Counting Elements</t>
+  </si>
+  <si>
+    <t>CountingElements</t>
+  </si>
+  <si>
+    <t>Data Structure (Set) , Counter</t>
+  </si>
+  <si>
+    <t>Set: Use hashSet to store the value and check if set containts x+1 -&gt; if it's count++</t>
   </si>
 </sst>
 </file>
@@ -1018,17 +1084,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1245,16 +1311,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13703DB-FEA8-9246-9D4D-5D4B2C6A9445}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F15" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="54.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="58.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="76.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -1671,18 +1737,18 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1725,7 +1791,7 @@
       <c r="B29" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -1742,7 +1808,7 @@
       <c r="A30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1758,8 +1824,45 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="15"/>
+    <row r="31" spans="1:6" ht="71" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamal/Documents/yallafix/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k.weheliye/Desktop/tarabut/compliance/leet-code/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322118AB-A824-4942-8516-FBB2CE2400DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A50F06C-2325-394D-B271-9A793E0CD58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
   <si>
     <t>Category</t>
   </si>
@@ -922,6 +922,21 @@
   </si>
   <si>
     <t>Set: Use hashSet to store the value and check if set containts x+1 -&gt; if it's count++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revision </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sum-equals-k/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/interview/card/leetcodes-interview-crash-course-data-structures-and-algorithms/705/hashing/4512/</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>560. Subarray Sum Equals K</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1081,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1088,13 +1103,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1311,17 +1327,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13703DB-FEA8-9246-9D4D-5D4B2C6A9445}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="2" max="2" width="58.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="76.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="255.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -1737,12 +1753,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
@@ -1828,7 +1844,7 @@
       <c r="A31" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -1863,6 +1879,28 @@
       <c r="F32" s="3" t="s">
         <v>109</v>
       </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C52" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1890,6 +1928,7 @@
     <hyperlink ref="C28" r:id="rId19" xr:uid="{46B153E7-4D1E-AD47-B84C-1AC037305EC3}"/>
     <hyperlink ref="C27" r:id="rId20" xr:uid="{C3A7855B-CF30-764F-8E3A-2F7A2EEF233E}"/>
     <hyperlink ref="C30" r:id="rId21" xr:uid="{31D8B6D9-4654-D442-97D5-26DF0E065BE1}"/>
+    <hyperlink ref="D51" r:id="rId22" display="https://leetcode.com/problems/subarray-sum-equals-k/" xr:uid="{2F9347DA-58F4-0240-A3C1-52359DF36348}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
+++ b/src/main/java/org/code/challenges/leetcode/Leetcode _75_Questions_Nots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamal/Documents/yallafix/leecode-java/src/main/java/org/code/challenges/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322118AB-A824-4942-8516-FBB2CE2400DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECE894C-E299-3141-ABF9-3ACBD9727E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="113">
   <si>
     <t>Category</t>
   </si>
@@ -922,13 +922,22 @@
   </si>
   <si>
     <t>Set: Use hashSet to store the value and check if set containts x+1 -&gt; if it's count++</t>
+  </si>
+  <si>
+    <t>Count the number of subarrays with an "exact" constraint</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/interview/card/leetcodes-interview-crash-course-data-structures-and-algorithms/705/hashing/4512/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need Revision </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1004,6 +1013,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1066,7 +1097,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1088,13 +1119,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1311,23 +1345,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13703DB-FEA8-9246-9D4D-5D4B2C6A9445}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="58.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="117.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="139.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="76.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="255.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1364,7 +1398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1381,7 +1415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1398,7 +1432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1415,7 +1449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1432,7 +1466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1452,7 +1486,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1472,7 +1506,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1492,7 +1526,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="19">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1512,7 +1546,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="19">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1532,7 +1566,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="19">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1552,7 +1586,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="19">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1572,7 +1606,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1589,7 +1623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1603,7 +1637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -1617,7 +1651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1634,7 +1668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,7 +1682,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -1665,7 +1699,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
@@ -1682,7 +1716,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -1699,7 +1733,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,7 +1750,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="19">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1736,15 +1770,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>82</v>
       </c>
@@ -1764,7 +1798,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>82</v>
       </c>
@@ -1784,7 +1818,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="29">
       <c r="A29" s="3" t="s">
         <v>82</v>
       </c>
@@ -1804,7 +1838,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>82</v>
       </c>
@@ -1824,11 +1858,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="71" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="71">
       <c r="A31" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -1844,7 +1878,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>82</v>
       </c>
@@ -1862,6 +1896,19 @@
       </c>
       <c r="F32" s="3" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="20">
+      <c r="B39" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
